--- a/streamlit/dados_brutos/zapimoveis_alugar_sao-paulo_20240819.xlsx
+++ b/streamlit/dados_brutos/zapimoveis_alugar_sao-paulo_20240819.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,27 +466,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Rua Iguatemi</t>
+          <t>Rua Pedroso Alvarenga</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>.Conjunto comercial no Itaim Bibi para locação com 300m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. -</t>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>300 m²</t>
+          <t>331 m²</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -508,22 +508,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sala comercial mobiliada, com uma sala de reunião completa, duas salas de diretoria, duas salas no vão livre com 26 postos de trabalho.Conjunto lindissimo, no melhor do itaim bibi.Agende sua visita -</t>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>255 m²</t>
+          <t>377 m²</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -535,32 +535,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Jardim Paulistano, São Paulo</t>
+          <t>Itaim Bibi, São Paulo</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rua Professor Artur Ramos</t>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>. -</t>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>400 m²</t>
+          <t>45 m²</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -577,27 +577,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rua Joaquim Floriano</t>
+          <t>Rua Pedroso Alvarenga</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Conjunto comercial no Itaim Bibi para locação com 205m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>205 m²</t>
+          <t>87 m²</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -614,27 +614,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rua Pedroso Alvarenga</t>
+          <t>Rua Iguatemi</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>87 m²</t>
+          <t>265 m²</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -646,32 +646,32 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jardim Paulista, São Paulo</t>
+          <t>Vila Nova Conceição, São Paulo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Avenida São Gabriel</t>
+          <t>Rua Urussuí</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Excelente oportunidade no coração do Itaim Bibi!OBS: Temos mais unidades iguais sob nossa gestão no mesmo condomínio (32 e 64m²)!Excelente escritório na Avenida São Gabriel (Itaim Bibi), com 32m² e 1 banheiro, com vista para a própria avenida.Localizado entre as avenidas Nove de Julho e Santo Amaro, fica próximo a comércios, restaurantes, cafés, etc. Espaço arejado e iluminado, ótimo para seu escritório ou seu inquilino exigente! Excelente mobilidade, próximo a vários pontos de transporte público (ônibus). Investimento certo!Agende agora sua visita com a RE/MAX Comunità e venha tomar um café comigo num dos estabelecimentos a passos de distância, a meu convite!</t>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -683,22 +683,22 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Itaim Bibi, São Paulo</t>
+          <t>Vila Nova Conceição, São Paulo</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rua Urussuí</t>
+          <t>Rua Professor Atílio Innocenti</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Flat disponível para locação no Itaim Bibi  O Condomínio Saint James fica localizado em Rua Urussuí no bairro Itaim Bibi em São Paulo. É bem localizado, próximo a pontos de interesse de Itaim Bibi, tais como DeRose Method Itaim, Escola Estadual Ludovina Credidio Peixoto, Hospital Sancta Maggiore, Grupo Escolar Martim Francisco, Célia Helena Centro de Artes e Educação e Let's Code.  Atenção: unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>41 m²</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -725,27 +725,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rua Urussuí</t>
+          <t>Rua Tabapuã</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Flat disponível para locação no Itaim Bibi  O Condomínio Saint James fica localizado em Rua Urussuí no bairro Itaim Bibi em São Paulo. É bem localizado, próximo a pontos de interesse de Itaim Bibi, tais como DeRose Method Itaim, Escola Estadual Ludovina Credidio Peixoto, Hospital Sancta Maggiore, Grupo Escolar Martim Francisco, Célia Helena Centro de Artes e Educação e Let's Code.  Atenção: unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>40 m²</t>
+          <t>152 m²</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -757,32 +757,32 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Vila Nova Conceição, São Paulo</t>
+          <t>Itaim Bibi, São Paulo</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Rua Urussuí</t>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>130 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -799,27 +799,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Rua Iara</t>
+          <t>Rua Joaquim Floriano</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Próximo a supermercados, restaurantes, bares, ponto de ônibus e de taxis, escolas e vias de acesso como Av. Juscelino Kubitscheck. O edifício dispõem de piscina, salão de festa, playground, churrasqueira e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade.</t>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>54 m²</t>
+          <t>200 m²</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -831,32 +831,32 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Itaim Bibi, São Paulo</t>
+          <t>Vila Nova Conceição, São Paulo</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+          <t>Rua Urussuí</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Flat disponível para locação em ótimo bairro, o Itaim Bibi. O edifício está localizado próximo ao Hospital Sírio Libanês e o Hospital do Coração, próximo ao Shopping Vila Olímpia, a escolas e faculdades, próximo ao Parque Ibirapuera, a supermercados, bancos, academias, pontos de ônibus e de taxi, e a vias de acesso como a Av. Pres. Juscelino Kubitschek. O edifício dispõem de academia, piscina, sauna, recepção e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>48 m²</t>
+          <t>130 m²</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -873,27 +873,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Rua Joaquim Floriano</t>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Conjunto comercial no Itaim Bibi para locação com 240m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>240 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -905,22 +905,22 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Jardim Paulista, São Paulo</t>
+          <t>Itaim Bibi, São Paulo</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Avenida São Gabriel</t>
+          <t>Rua Pais de Araújo</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ótima sala comercial de 33 m², banheiro, copa, antessala e 1 vaga de garagem.Excelente localização, fácil acesso às Avs. Santo Amaro, Nove de Julho, Juscelino Kubitschek e Antonio Joaquim de Moura Andrade.Bairro com excelente infraestrutura comercial.Agende uma visita !!!</t>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>32 m²</t>
+          <t>50 m²</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -947,27 +947,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Rua Tabapuã</t>
+          <t>Avenida Brigadeiro Faria Lima</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ZM de esquina pornto para um mini shopping A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>944 m²</t>
+          <t>1165 m²</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>0 - 6 - 8 - 15</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>21 - 25 - 40</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -984,30 +984,7800 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Rua Doutor João Clímaco Pereira</t>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cód: 8QDUQ7Valor do pacote mensal: R$5.000,00 (incluso Aluguel, Condomínio e IPTU) Obs: Locações disponíveis para locação com prazo mínimo de 30 Dias. (Sujeito a confirmação).O bairro Itaim Bibi está localizado entre as principais vias de acesso, como as avenidas Nove de Julho, Santo Amaro, Brigadeiro Faria Lima e Marginal Pinheiros. A região conta com diversas linhas de ônibus vindas de várias partes da cidade, estações de trem, como a Vila Olímpia e Cidade Jardim, além da estação de metrô Faria Lima, que também dá acesso à região, otimizando seu tempo e qualidade de vida.O bairro fica próximo das principais empresas multinacionais da cidade, como o Facebook, o Google e a Louis Vuitton, sendo um dos motivos de orgulho dos moradores e empresários que frequentam a região. A Região conta com os Shoppings de luxo JK e Iguatemi. parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.No condomínio inclui: Camareira, Tv à Cabo, Mensageiro, Lavanderia, Recepção 24hrs; Áreas de lazer tais como: Piscina, Academia, Sauna, Salão de Festa, Salão de Jogos, Sala de Reuniões, entre outras (ESSES SERVIÇOS PODEM VARIAR DE ACORDO COM O CONDOMÍNIO) - Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.Power Flats Empreendimentos Imobiliários.</t>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>50 - 52 - 55 - 57 - 61 m²</t>
+          <t>300 m²</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>1 - 2</t>
+          <t>4 - 6</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1 - 2</t>
+          <t>6 - 10</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Clássico Apartamento no Itaim, Considerado um dos Melhores de Sua Época, Que Já Contava com 3 Suítes e 3 Vagas. Amplo Living Para 3 Ambientes Mais Sala de Jantar e Sala de TV. Total. O Prédio Conta com Sala de Ginástica, Sala de Jogos, Brinquedoteca, Salão de Festas . Visite!!!A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>331 m²</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Conjunto comercial na cobertura, para locação com 376 m², cjtos. unificados com acesso único, salas de reuniões, para Diretoria, Gerências e Supervisões e Staff. Recepção, 8 banheiros, 8 vagas de garagem, Copa, ar condicionado central, com toda a infraestrutura necessária, pontos de energia e rede, forro de gesso com luminárias embutidas, janelas com persianas, com manobrista, 7 elevadores sendo 2 panorâmicos, segurança e portaria 24 horas, recepção com controle de acesso em catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV, estacionamento rotativo para visitantes e gerador para áreas comuns do condomínio. Próximo a restaurantes, lojas, supermercados, agências bancarias, centro comerciais e hotéis. Fácil acesso pelas avenidas São Gabriel, Juscelino Kubitschek, Nove de Julho e Brigadeiro Faria Lima. Próximo do Parque do Ibirapuera. Fernandes Lucena Brokers. -</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>377 m²</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Flat para locação no Itaim Bibi - Edifício Saint Exupery - Cód. MUF00772  O Saint Exupery foi construído em 1986. É composto por uma torre única, e fica localizado na na Rua Leopoldo Couto de Magalhães Júnior, no bairro Itaim Bibi, em São Paulo - SP.Fica próximo a diversos pontos de interesse do bairro, tais como: Parque do Povo, Museu da Casa Brasileira, Supermercado Eataly e Parque do Ibirapuera. A estação de trem mais próxima é a Cidade Jardim (Linha 9 - Esmeralda), a aproximadamente 1.6km de distância da propriedade. Além disso, o edifício possui fácil acesso a algumas das principais vias da região, como: Avenidas Presidente Juscelino Kubitschek, Santo Amaro e Brigadeiro Faria Lima.Para sua comodidade, o edifício oferece: portaria, recepção, área social, elevadores, lavanderia coletiva, sala de ginástica, sauna e piscina no terraço.Rarus, especialistas em flats desde 1998. Faça seu contato!Atenção: Unidade sujeita a confirmação de valores e disponibilidade, sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>45 m²</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Rua Joaquim Floriano</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 200m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a estação de metrô e CPTM, shoppings e restaurantes. Agende uma visita - FLBrokers –</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>200 m²</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 17/08.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Conjunto comercial de 300 m2 de área útil, com divisórias, piso elevado, forro de gesso, luminárias, 4 banheiros, copa e 10 vagas de garagem com manobristas.Prédio de alto padrão com 12 andares, 4 unidades por andar, 3 elevadores, segurança e portaria 24 horas, recepção com controle de acesso, área para eventos e estacionamento rotativo para visitantes.Localizado no bairro do Itaim Bibi / Rua Leopoldo Couto de Magalhães.Visitas com a Fernandes Lucena Brokers! -</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>300 m²</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>4 - 6</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>6 - 10</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>

--- a/streamlit/dados_brutos/zapimoveis_alugar_sao-paulo_20240819.xlsx
+++ b/streamlit/dados_brutos/zapimoveis_alugar_sao-paulo_20240819.xlsx
@@ -413,14 +413,607 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Bairro</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Endereco</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Descricao</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Banheiros</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Vagas</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Preco</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Rua Jesuíno Arruda</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Esse imóvel conta uma localização privilegiada, próximo de restaurantes, bares, lojas e supermercados, esse apartamento é ideal para quem busca conforto, praticidade no coração do Itaim Bibi.Muito bem distribuído com ambientes amplos, bem iluminado, arejado e super conservado, além disso possui uma vista incrível.O condomínio é completo e bem administrado, possui uma excelente piscina, quadra, salão de festas, playground e academia.Agende sua visita e venha conhecer esse imóvel exclusivo !! -</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>196 m²</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Avenida Presidente Juscelino Kubitschek</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com 512 m² de área, 16 vagas de garagem , piso elevado , pé direito com 2,85 metros , possui 2 geradores para área comum. Edifício de alto padrão com excelente imagem corporativa , localização privilegiada. SJR IMÓVEIS -</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>512 m²</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rua Professor Carlos de Carvalho</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Excelente apartamento de em uma rua arborizada do Itaim Bibi, próximo à R. Tabapuã com 2 dormitórios, 2 banheiros, 2 salas, 1 escritório, cozinha com armários, área de serviço, vaga de garagem. Mobiliado, ar condicionado na sala (TH)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>120 m²</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rua Iguatemi</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Conjunto comercial no Itaim Bibi para locação com 265m², com estrutura para piso, forro modular ou gesso, luminárias, banheiros, copa, ar condicionado, com direito a vagas de garagem com manobristas. Edifício de alto padrão com elevadores, segurança e portaria 24 horas, recepção com controle de acesso e identificação por foto e documento, catracas eletrônicas, sistema de combate a incêndio com detector de fumaça e sensor de calor, CFTV e estacionamento rotativo para visitantes. Localizado no bairro do Itaim Bibi, um dos mais importantes polos corporativos de São Paulo. Próximo a shoppings e restaurantes. Agende uma visita - FLBrokers -</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>265 m²</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rua Pedroso Alvarenga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>O imóvel no bairro Itaim Bibi possui 87 metros quadrados com 3 quartos sendo 1 suite e 3 banheirosPossui salão para festas e eventos.Elevador para mais praticidade no dia-a-dia.</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>87 m²</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rua Urussuí</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Oportunidade - Conjunto Comercial - Itaim Bibi - 130m². Este conjunto comercial está localizado no Itaim Bibi, próximo ao Leopoldo Couto de Magalhães Jr, Renato Paes de Barros, Rua Joaquim Floriano, Faria Lima, região repleta de restaurantes, comércio, transportes e escritórios.Conheça as características dessa sala comercial:- 130m² Área útil- Está unificada ao conjunto ao lado podendo dobrar de tamanho- Piso vinílico- Copa- 2 Banheiros- Janelões proporcionando uma vista incrível do bairroDiferenciais Exclusivos:- Andar alto, iluminado, pronto para ser ocupado- Prédio com segurança 24h- Recepção bacana- Jardim- Auditório- Sala de reuniõesQue tal agendar uma visita e conhecer este imóvel hoje mesmo? Seja para vender, alugar ou adquirir um imóvel, procure o Grupo Kaza, a sua imobiliária em São José dos Campos. Muito mais que uma imobiliária, nós somos a referência em consultoria imobiliária.Também temos imóveis na Vila Nova Conceição, Itaim Bibi, Vila Olímpia, Moema, Ibirapuera, Jardim Luzitânia, Jardim Europa, Jardim América, Jardim Paulistano, Jardim Paulista, Cidade Jardim, Vila Mariana, Paraíso, Alto de Pinheiros, Pinheiros, Perdizes, Morumbi, Campo Belo, Brooklin, Higienópolis, Pacaembu entre outros bairros.O Grupo Kaza atua com foco em atender seus clientes com excelência, seja em locação, vendas de imóveis prontos, usados ou mesmo nos principais lançamentos da região de São José dos Campos. As informações contidas neste anúncio foram informadas pelo proprietário(a) do imóvel e possuem seus direitos reservados.. ref. 69141 atualizado em 06/08.</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>130 m²</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Conjunto comercial com ou sem mobilia, de acordo com sua necessidade.</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>152 m²</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rua Professor Atílio Innocenti</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação na Vila Nova Conceição próximo ao Shopping Vila Olímpia, próximo a estação CPTM Berrini, próximo a estação de metrô Campo belo, próximo ao Hospital Santa Paula, próximo ao Parque Ibirapuera, próximo a restaurantes, bares, supermercados, faculdades, escolas, e a vias de acesso como Av. Santo Amaro e a Av. Brigadeiro Faria Lima. Edifício dispõem de piscina, academia, churrasqueira, quadra, vaga de garagem , entre outros atributos. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>41 m²</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Avenida Cidade Jardim</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação no Itaim Bibi, ótimo bairro de São Paulo. Localizado próximo ao Museu da Casa Brasileira, a padarias, restaurantes, bares, supermercados, pontos de ônibus e de taxi, a farmácias, escolas e a vias de acesso. O edifício dispõem de piscina, academia, restaurante, spa, sauna, vaga de garagem e muitos mais atributos. Atenção: unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rua Tabapuã</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ZM de esquina pornto para um mini shopping A Imóveis PRO está entre as melhores imobiliárias do Brasil e desenvolveu uma nova experiência no atendimento customizado aos clientes exigentes que buscam imóveis selecionados nos melhores bairros de São Paulo.Juntamos a tradição com altas de tecnologia e um time muito experiente fazendo com que a jornada de busca seja muito mais objetiva e prazerosa.Seja atendido no formato VIP Imóveis PRO com quem realmente entende do mercado e dos principais imóveis de São Paulo.Atendemos Full Service: Vendas, Locações, Administração de Patrimônio, Formatação de Áreas para Incorporações, Expansões de Empresas, Atualização de Patrimônio.Valores e disponibilidade poderão sofrer alterações. Consulte mais informações com os nossos especialistas.Vem Com quem é PRO!</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>944 m²</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rua Pais de Araújo</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Apartamento com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Tiffany Residence fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Avenida Brigadeiro Faria Lima</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Conjunto corporativa com 1164,18m². Edifício de Alto Padrão, com forte imagem corporativa, 15 andares, ar condicionado central, piso elevado com estrutura metálica, forro modular. Localizado na Avenida Brigadeiro Faria Lima. Fácil acesso pelas avenidas Juscelino Kubitschek, Hélio Pellegrino, e pelo túnel Ayrton Senna, além das marginais Pinheiros e Tietê.Localizado a 5 minutos do hotel Mélia Jardim Europa e a 3 minutos dos flats Blue Tree Faria Lima e Vila Olímpia e do Flat Brascan. Possuí ainda uma grande rede de hotéis 4 estrelas e pequenos flats na região. Fernandes Lucena Brokers -</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1165 m²</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0 - 6 - 8 - 15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>21 - 25 - 40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Itaim Bibi, São Paulo</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rua Leopoldo Couto Magalhães Júnior</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Flat disponível para locação em ótimo bairro de São Paulo, o Itaim Bibi. Está localizado próximo ao Shopping JK Iguatemi e ao Shopping Vila Olímpia, próximo ao Parque Ibirapuera, ao Hospital Santa Paula, ao Jockey Club, a restaurantes, bares, lojas, escolas e a vias de acesso como Av. Santo Amaro. O Edifício dispõem de piscina, churrasqueira, salão de festa, espaço gourmet e muito mais. Atenção: Unidade sujeita a confirmação de valores e disponibilidade sem aviso prévio.</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>50 m²</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Vila Nova Conceição, São Paulo</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rua João Cachoeira</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Flat com ótimo preço no bairro Itaim Bibi. Confira! O Edifício Upper Itaim fica próximo as principais avenidas como a Av. Faria Lima, Av. Juscelino Kubitschek, Av Cidade Jardim e Av. Santo Amaro. Na região possuem supermercados, restaurantes, bancos, lojas, metrô (estação Faria Lima), pontos de táxi, parques como o Parque do povo e o parque do Ibirapuera para um ótimo lazer.Itaim é bem estruturado de hospitais e clínicas, como o Hospital e Maternidade São Luís. Na hora de se locomover, seja para a rede de saúde ou qualquer outro lugar, o morador também pode ficar tranquilo, Itaim conta tem uma ótima estrutura de transporte público, com linhas que interligam a vizinhança com as zonas leste, sul e norte, além de ter uma ampla rede de ciclovias.Quem curte uma vida agitada, há muitas casas noturnas com boa qualidade de musica. Além de poder escolher entre os muitos bares e restaurantes da região. Para quem gosta de fazer compras ou pegar um cinema o Shopping Iguatemi e Jk Iguatemi. Ainda podendo passear com seu Pet, nas ruas tranquilas e se exercitar no Parque do Povo.Alguns condomínios podem incluir: Arrumação diária, lavanderia, vaga de garagem, manobrista, mensageiro, recepção 24hrs, TV à cabo, área de lazer: piscina, sauna, sala de ginástica, restaurante (esses serviços podem variar de acordo com cada edifício). Algumas imagens podem ser ilustrativas. Entre em contato e iremos te passar mais informações. Algumas imagens podem ser meramente ilustrativas.  Venha fazer uma visita com nossos corretores. R2 FLATS - OS MELHORES FLATS DE SÃO PAULO!!!</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>40 m²</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>